--- a/c4/results.xlsx
+++ b/c4/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\home\kuba\zuzu\c4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191AAC8B-9121-4732-B3F9-E74873920BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD8589E-5DC9-4FD2-88E0-001482FC630E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{71C0F0FD-BC1B-446E-9C05-B0AD82DD562C}"/>
+    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="11709" xr2:uid="{71C0F0FD-BC1B-446E-9C05-B0AD82DD562C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -258,28 +258,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>41976</c:v>
+                  <c:v>40203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29118</c:v>
+                  <c:v>28858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26451</c:v>
+                  <c:v>27299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25606</c:v>
+                  <c:v>23938</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24547</c:v>
+                  <c:v>24016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25933</c:v>
+                  <c:v>23138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23429</c:v>
+                  <c:v>23681</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24390</c:v>
+                  <c:v>22478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,28 +599,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>705711</c:v>
+                  <c:v>752120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>414286</c:v>
+                  <c:v>419328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>314294</c:v>
+                  <c:v>316089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>282982</c:v>
+                  <c:v>275284</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>249079</c:v>
+                  <c:v>248929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>237740</c:v>
+                  <c:v>234477</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>226258</c:v>
+                  <c:v>225785</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>221995</c:v>
+                  <c:v>215135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,28 +940,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2735</c:v>
+                  <c:v>3524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2719</c:v>
+                  <c:v>2975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3048</c:v>
+                  <c:v>3163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3182</c:v>
+                  <c:v>2917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3016</c:v>
+                  <c:v>2972</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2876</c:v>
+                  <c:v>2534</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3066</c:v>
+                  <c:v>2919</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3221</c:v>
+                  <c:v>2838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,28 +1281,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>14899079</c:v>
+                  <c:v>15131683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8068934</c:v>
+                  <c:v>8347918</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6245664</c:v>
+                  <c:v>6055734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4885513</c:v>
+                  <c:v>4899728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4415388</c:v>
+                  <c:v>4255788</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3898284</c:v>
+                  <c:v>3779873</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3442907</c:v>
+                  <c:v>3517209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3334617</c:v>
+                  <c:v>3281598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4167,7 +4167,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4219,16 +4219,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2735</v>
+        <v>3524</v>
       </c>
       <c r="C2">
-        <v>41976</v>
+        <v>40203</v>
       </c>
       <c r="D2">
-        <v>705711</v>
+        <v>752120</v>
       </c>
       <c r="E2">
-        <v>14899079</v>
+        <v>15131683</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -4260,48 +4260,48 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2719</v>
+        <v>2975</v>
       </c>
       <c r="C3">
-        <v>29118</v>
+        <v>28858</v>
       </c>
       <c r="D3">
-        <v>414286</v>
+        <v>419328</v>
       </c>
       <c r="E3">
-        <v>8068934</v>
+        <v>8347918</v>
       </c>
       <c r="G3">
         <f>$B$2/$B3</f>
-        <v>1.005884516366311</v>
+        <v>1.1845378151260504</v>
       </c>
       <c r="H3">
         <f>G3/A3</f>
-        <v>0.50294225818315552</v>
+        <v>0.59226890756302519</v>
       </c>
       <c r="J3">
         <f>$C$2/$C3</f>
-        <v>1.4415825262724089</v>
+        <v>1.3931318871716682</v>
       </c>
       <c r="K3">
         <f>J3/A3</f>
-        <v>0.72079126313620445</v>
+        <v>0.69656594358583412</v>
       </c>
       <c r="M3">
         <f>$D$2/$D3</f>
-        <v>1.7034391700419518</v>
+        <v>1.7936317155067154</v>
       </c>
       <c r="N3">
         <f>M3/A3</f>
-        <v>0.85171958502097589</v>
+        <v>0.8968158577533577</v>
       </c>
       <c r="P3">
         <f>$E$2/$E3</f>
-        <v>1.8464742678524821</v>
+        <v>1.8126295682348581</v>
       </c>
       <c r="Q3">
         <f>P3/A3</f>
-        <v>0.92323713392624107</v>
+        <v>0.90631478411742905</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -4309,48 +4309,48 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3048</v>
+        <v>3163</v>
       </c>
       <c r="C4">
-        <v>26451</v>
+        <v>27299</v>
       </c>
       <c r="D4">
-        <v>314294</v>
+        <v>316089</v>
       </c>
       <c r="E4">
-        <v>6245664</v>
+        <v>6055734</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G9" si="0">$B$2/$B4</f>
-        <v>0.89730971128608927</v>
+        <v>1.1141321530192856</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H9" si="1">G4/A4</f>
-        <v>0.29910323709536307</v>
+        <v>0.37137738433976186</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J9" si="2">$C$2/$C4</f>
-        <v>1.58693433140524</v>
+        <v>1.4726913073738965</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K9" si="3">J4/A4</f>
-        <v>0.52897811046841337</v>
+        <v>0.49089710245796553</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M9" si="4">$D$2/$D4</f>
-        <v>2.2453848943982386</v>
+        <v>2.3794564189199878</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N9" si="5">M4/A4</f>
-        <v>0.74846163146607958</v>
+        <v>0.79315213963999598</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P9" si="6">$E$2/$E4</f>
-        <v>2.3855076097593466</v>
+        <v>2.4987364042079787</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q9" si="7">P4/A4</f>
-        <v>0.79516920325311558</v>
+        <v>0.8329121347359929</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -4358,48 +4358,48 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3182</v>
+        <v>2917</v>
       </c>
       <c r="C5">
-        <v>25606</v>
+        <v>23938</v>
       </c>
       <c r="D5">
-        <v>282982</v>
+        <v>275284</v>
       </c>
       <c r="E5">
-        <v>4885513</v>
+        <v>4899728</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.85952231301068516</v>
+        <v>1.2080905039424066</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.21488057825267129</v>
+        <v>0.30202262598560164</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>1.6393032882918066</v>
+        <v>1.6794636143370374</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
-        <v>0.40982582207295165</v>
+        <v>0.41986590358425935</v>
       </c>
       <c r="M5">
         <f t="shared" si="4"/>
-        <v>2.4938370638415166</v>
+        <v>2.7321602417866639</v>
       </c>
       <c r="N5">
         <f t="shared" si="5"/>
-        <v>0.62345926596037915</v>
+        <v>0.68304006044666599</v>
       </c>
       <c r="P5">
         <f t="shared" si="6"/>
-        <v>3.0496447353635125</v>
+        <v>3.0882700019266376</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>0.76241118384087814</v>
+        <v>0.7720675004816594</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -4407,48 +4407,48 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3016</v>
+        <v>2972</v>
       </c>
       <c r="C6">
-        <v>24547</v>
+        <v>24016</v>
       </c>
       <c r="D6">
-        <v>249079</v>
+        <v>248929</v>
       </c>
       <c r="E6">
-        <v>4415388</v>
+        <v>4255788</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.90683023872679047</v>
+        <v>1.1857335127860027</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.18136604774535808</v>
+        <v>0.23714670255720055</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>1.7100256650507191</v>
+        <v>1.6740089940039973</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>0.34200513301014379</v>
+        <v>0.33480179880079947</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>2.8332818101887352</v>
+        <v>3.0214237794712551</v>
       </c>
       <c r="N6">
         <f t="shared" si="5"/>
-        <v>0.56665636203774705</v>
+        <v>0.60428475589425101</v>
       </c>
       <c r="P6">
         <f t="shared" si="6"/>
-        <v>3.3743532844678654</v>
+        <v>3.5555537540873745</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>0.67487065689357306</v>
+        <v>0.71111075081747488</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -4456,48 +4456,48 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2876</v>
+        <v>2534</v>
       </c>
       <c r="C7">
-        <v>25933</v>
+        <v>23138</v>
       </c>
       <c r="D7">
-        <v>237740</v>
+        <v>234477</v>
       </c>
       <c r="E7">
-        <v>3898284</v>
+        <v>3779873</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.95097357440890129</v>
+        <v>1.3906866614048934</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.15849559573481689</v>
+        <v>0.23178111023414891</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>1.6186326302394631</v>
+        <v>1.7375313337367102</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>0.2697721050399105</v>
+        <v>0.28958855562278502</v>
       </c>
       <c r="M7">
         <f t="shared" si="4"/>
-        <v>2.9684150752923362</v>
+        <v>3.2076493643299768</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
-        <v>0.49473584588205605</v>
+        <v>0.53460822738832947</v>
       </c>
       <c r="P7">
         <f t="shared" si="6"/>
-        <v>3.8219583283311325</v>
+        <v>4.0032252406363922</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>0.63699305472185541</v>
+        <v>0.66720420677273207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -4505,48 +4505,48 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3066</v>
+        <v>2919</v>
       </c>
       <c r="C8">
-        <v>23429</v>
+        <v>23681</v>
       </c>
       <c r="D8">
-        <v>226258</v>
+        <v>225785</v>
       </c>
       <c r="E8">
-        <v>3442907</v>
+        <v>3517209</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.8920417482061318</v>
+        <v>1.2072627612195959</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.12743453545801883</v>
+        <v>0.17246610874565654</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>1.7916257629433607</v>
+        <v>1.6976901313289134</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>0.25594653756333724</v>
+        <v>0.2425271616184162</v>
       </c>
       <c r="M8">
         <f t="shared" si="4"/>
-        <v>3.1190543538791999</v>
+        <v>3.3311336005491952</v>
       </c>
       <c r="N8">
         <f t="shared" si="5"/>
-        <v>0.4455791934113143</v>
+        <v>0.47587622864988505</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>4.3274706519810149</v>
+        <v>4.3021847720735389</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>0.61821009314014497</v>
+        <v>0.61459782458193413</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -4554,48 +4554,48 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3221</v>
+        <v>2838</v>
       </c>
       <c r="C9">
-        <v>24390</v>
+        <v>22478</v>
       </c>
       <c r="D9">
-        <v>221995</v>
+        <v>215135</v>
       </c>
       <c r="E9">
-        <v>3334617</v>
+        <v>3281598</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.84911518162061472</v>
+        <v>1.2417195207892882</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.10613939770257684</v>
+        <v>0.15521494009866102</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>1.7210332103321033</v>
+        <v>1.7885488032743126</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>0.21512915129151292</v>
+        <v>0.22356860040928908</v>
       </c>
       <c r="M9">
         <f t="shared" si="4"/>
-        <v>3.1789499763508187</v>
+        <v>3.4960373718827711</v>
       </c>
       <c r="N9">
         <f t="shared" si="5"/>
-        <v>0.39736874704385233</v>
+        <v>0.43700467148534639</v>
       </c>
       <c r="P9">
         <f t="shared" si="6"/>
-        <v>4.4680030720169661</v>
+        <v>4.6110714962649295</v>
       </c>
       <c r="Q9">
         <f t="shared" si="7"/>
-        <v>0.55850038400212076</v>
+        <v>0.57638393703311619</v>
       </c>
     </row>
   </sheetData>

--- a/c4/results.xlsx
+++ b/c4/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\home\kuba\zuzu\c4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD8589E-5DC9-4FD2-88E0-001482FC630E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC2568-36C7-4316-A9C9-6A7C9A3A4E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="11709" xr2:uid="{71C0F0FD-BC1B-446E-9C05-B0AD82DD562C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{71C0F0FD-BC1B-446E-9C05-B0AD82DD562C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
